--- a/data-raw/district_placeholder.xlsx
+++ b/data-raw/district_placeholder.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Robinson/Afenet-projects/afenet-uganda/malariaRA/data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BEF6A11-1656-C74A-BF22-BB970E7AFC3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00F8D4F2-7E0A-B34C-8C32-94C155E6DF2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="13880" xr2:uid="{34179EBF-EA7A-454E-A815-C1EFFB15E6B7}"/>
   </bookViews>
@@ -412,7 +412,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -453,12 +453,6 @@
       <c r="D2">
         <v>0</v>
       </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
@@ -473,12 +467,6 @@
       <c r="D3">
         <v>0</v>
       </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -493,12 +481,6 @@
       <c r="D4">
         <v>0</v>
       </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
@@ -513,12 +495,6 @@
       <c r="D5">
         <v>0</v>
       </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
@@ -531,12 +507,6 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
         <v>0</v>
       </c>
     </row>
